--- a/Data/Thesis/Raw/Data 2018/Fish/Little Maquoketa HUC8/LMAQ_fishdata_2018.xlsx
+++ b/Data/Thesis/Raw/Data 2018/Fish/Little Maquoketa HUC8/LMAQ_fishdata_2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbkelly\Documents\Brook Trout_Brett\Data 2018\Little Maquoketa HUC8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbkelly\Documents\Brook Trout_Brett\BKelly_Fishes_GithubRepos\Data\Thesis\Raw\Data 2018\Fish\Little Maquoketa HUC8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="816" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="816" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Outline" sheetId="1" r:id="rId1"/>
@@ -5403,7 +5403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7730,8 +7732,8 @@
   </sheetPr>
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8755,7 +8757,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10812,7 +10814,9 @@
   </sheetPr>
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -12045,7 +12049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -14293,8 +14299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18223,7 +18229,7 @@
   <dimension ref="A1:Q1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
